--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkat Yashwanth\AllFiles\MySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF413F-DC06-40C5-850E-5A8BACBC87E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8897F27-E0E9-4040-B319-5B8414D93255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D5F360F8-E4F3-4F33-9056-F476B9DA5CD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="88">
   <si>
     <t>id (int)</t>
   </si>
@@ -126,6 +126,180 @@
   </si>
   <si>
     <t>Student</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Blue Shirt</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Denim</t>
+  </si>
+  <si>
+    <t>Blue Jeans</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Black Jeans</t>
+  </si>
+  <si>
+    <t>Chocolate Cake</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Britannia</t>
+  </si>
+  <si>
+    <t>Strawberry Cake</t>
+  </si>
+  <si>
+    <t>Cadbury</t>
+  </si>
+  <si>
+    <t>Smart Watch</t>
+  </si>
+  <si>
+    <t>Gadgets</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Smart Cam</t>
+  </si>
+  <si>
+    <t>Realme</t>
+  </si>
+  <si>
+    <t>Smart TV</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Bourbon Small</t>
+  </si>
+  <si>
+    <t>Bourbon Special</t>
+  </si>
+  <si>
+    <t>Bourbon With Extra Cookies</t>
+  </si>
+  <si>
+    <t>White Shirt</t>
+  </si>
+  <si>
+    <t>Black Shirt</t>
+  </si>
+  <si>
+    <t>Black T-Shirt</t>
+  </si>
+  <si>
+    <t>Roadster</t>
+  </si>
+  <si>
+    <t>White T-Shirt</t>
+  </si>
+  <si>
+    <t>Levi's</t>
+  </si>
+  <si>
+    <t>Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Realme Smart Band</t>
+  </si>
+  <si>
+    <t>Raw Cashew</t>
+  </si>
+  <si>
+    <t>Absa</t>
+  </si>
+  <si>
+    <t>Cashew Nuts</t>
+  </si>
+  <si>
+    <t>Upcrop</t>
+  </si>
+  <si>
+    <t>Chocolate Cashew</t>
+  </si>
+  <si>
+    <t>Urban Platter</t>
+  </si>
+  <si>
+    <t>Potato Chips India’s Magic Masala</t>
+  </si>
+  <si>
+    <t>Lay's</t>
+  </si>
+  <si>
+    <t>Banana Chips</t>
+  </si>
+  <si>
+    <t>Calicut Kerala</t>
+  </si>
+  <si>
+    <t>Potato Chips Cream &amp; onion</t>
+  </si>
+  <si>
+    <t>Potato Chips Classic Salted</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Philosopher's Stone</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Chamber of Secrets</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Prisoner of Azkaban</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Goblet of Fire</t>
+  </si>
+  <si>
+    <t>OnePlus 6T</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>OnePlus</t>
+  </si>
+  <si>
+    <t>Redmi K20</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>SHOW TABLES</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -679,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E596D-C447-4BDF-A776-11135837699D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,12 +866,12 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -708,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -719,7 +893,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -730,7 +904,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -741,7 +915,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -752,7 +926,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -763,7 +937,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -774,7 +948,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -785,7 +959,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -796,7 +970,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -807,7 +981,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -816,6 +990,565 @@
       </c>
       <c r="C12">
         <v>11000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>750</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>750</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>17000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>2600</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>40000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>700</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>700</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>3000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>370</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>550</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>670</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>222</v>
+      </c>
+      <c r="E42">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43">
+        <v>343</v>
+      </c>
+      <c r="E43">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>284</v>
+      </c>
+      <c r="E44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45">
+        <v>431</v>
+      </c>
+      <c r="E45">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>32990</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>24999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -825,133 +1558,589 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17626AB-032A-447D-A171-874F8F08C779}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>750</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>17000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>2600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>40000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>700</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>600</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>370</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>550</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>670</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>550</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>343</v>
+      </c>
+      <c r="E30">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>284</v>
+      </c>
+      <c r="E31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>431</v>
+      </c>
+      <c r="E32">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>32990</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34">
+        <v>24999</v>
+      </c>
+      <c r="D34" t="s">
         <v>82</v>
       </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>11000</v>
+      <c r="E34">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
